--- a/biology/Zoologie/Brachymystax_lenok/Brachymystax_lenok.xlsx
+++ b/biology/Zoologie/Brachymystax_lenok/Brachymystax_lenok.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachymystax lenok est une espèce de poissons d'eau douce de la famille des Salmonidae originaire du Nord-Est de l'Asie.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre en Chine, en Corée du Nord, en Corée du Sud, au Kazakhstan, en Mongolie et en Russie[1]. C'est un poisson d'eau douce froide qui ne migre jamais vers l'océan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre en Chine, en Corée du Nord, en Corée du Sud, au Kazakhstan, en Mongolie et en Russie. C'est un poisson d'eau douce froide qui ne migre jamais vers l'océan.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachymystax lenok peut mesurer jusqu'à 70 cm de longueur totale pour les mâles et jusqu'à 60 cm pour les femelles[2]. Son poids maximal enregistré est de 8 kg[2].
-Ce poisson se nourrit d'insectes (à l'état larvaire ou adulte), d'amphipodes, de petits poissons, de grenouilles, de souris et d’œufs de saumon[2]. Pendant la période de frai, le corps vire au rouge foncé et les nageoires dorsale et pectorale présentent un arc-en-ciel de couleurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachymystax lenok peut mesurer jusqu'à 70 cm de longueur totale pour les mâles et jusqu'à 60 cm pour les femelles. Son poids maximal enregistré est de 8 kg.
+Ce poisson se nourrit d'insectes (à l'état larvaire ou adulte), d'amphipodes, de petits poissons, de grenouilles, de souris et d’œufs de saumon. Pendant la période de frai, le corps vire au rouge foncé et les nageoires dorsale et pectorale présentent un arc-en-ciel de couleurs.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Brachymystax lenok (Pallas, 1773)[3].
-L'espèce a été initialement classée dans le genre Salmo sous le protonyme Salmo lenok Pallas, 1773[3].
-Brachymystax lenok a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Brachymystax lenok (Pallas, 1773).
+L'espèce a été initialement classée dans le genre Salmo sous le protonyme Salmo lenok Pallas, 1773.
+Brachymystax lenok a pour synonymes :
 Brachymystax lenok tsinlingensis Li, 1966
 Brachymystax coregonoides (Pallas, 1814)
 Salmo coregonoides Pallas, 1814
@@ -610,9 +628,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, lenok, reprend le nom vernaculaire russe qui lui est donné en Sibérie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, lenok, reprend le nom vernaculaire russe qui lui est donné en Sibérie.
 </t>
         </is>
       </c>
